--- a/Python DOCS/0_Applications/data.xlsx
+++ b/Python DOCS/0_Applications/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,42 +471,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>932292</t>
+          <t>12858</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-07-13T20:00:00</t>
+          <t>2021-07-15T20:02:21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:02:21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Темирлан Бакытжанов</t>
+          <t>Nладислав Nльенко</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8-in-term_pzhdt</t>
+          <t>9-term_severnaya</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18446744073609554107</t>
+          <t>18446744073609552951</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,42 +518,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>932292</t>
+          <t>12858</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-07-13T19:59:59</t>
+          <t>2021-07-15T20:02:19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19:59:59</t>
+          <t>20:02:19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Темирлан Бакытжанов</t>
+          <t>Nладислав Nльенко</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8-in-term_pzhdt</t>
+          <t>9-term_severnaya</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18446744073609554107</t>
+          <t>18446744073609552951</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,42 +565,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>932292</t>
+          <t>2869</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-07-13T19:59:58</t>
+          <t>2021-07-15T19:16:25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19:59:58</t>
+          <t>19:16:25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Темирлан Бакытжанов</t>
+          <t>Алик Турганов</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8-in-term_pzhdt</t>
+          <t>9-term_severnaya</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18446744073609554107</t>
+          <t>18446744073609552468</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,42 +612,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>932292</t>
+          <t>2869</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-07-13T19:59:57</t>
+          <t>2021-07-15T19:16:24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19:59:57</t>
+          <t>19:16:24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Темирлан Бакытжанов</t>
+          <t>Алик Турганов</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8-in-term_pzhdt</t>
+          <t>9-term_severnaya</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18446744073609554107</t>
+          <t>18446744073609552468</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,45 +659,1079 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2869</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-07-15T19:16:22</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19:16:22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Алик Турганов</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>18446744073609552468</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2869</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-07-15T19:16:21</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19:16:21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Алик Турганов</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>18446744073609552468</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6545</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-07-15T19:14:12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19:14:12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Виолетта Суворова</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>18446744073609552858</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>37.1</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>930639</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-07-15T19:13:19</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19:13:19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Амансулу Худайбердина</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>18446744073609552509</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>37.4</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>930639</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2021-07-15T19:13:18</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19:13:18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Амансулу Худайбердина</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>18446744073609552509</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>37.3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>930639</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2021-07-15T19:13:17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19:13:17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Амансулу Худайбердина</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>18446744073609552509</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>37.3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>930639</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2021-07-15T19:13:16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19:13:16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Амансулу Худайбердина</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>18446744073609552509</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>37.3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>930672</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2021-07-15T19:13:12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19:13:12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Мария Шашлова</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>18446744073609553590</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>930672</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2021-07-15T19:13:12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19:13:12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Мария Шашлова</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>18446744073609553590</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>48002</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2021-07-15T19:13:05</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19:13:05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Сергей Попов</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>18446744073609553991</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>28130</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021-07-15T19:12:51</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19:12:51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Светлана Гаврилова</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18446744073609553888</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>932066</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2021-07-15T18:11:12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18:11:12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Сергей Оконешников</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>18446744073609553984</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12828</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2021-07-15T17:08:22</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17:08:22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Сергей Любшин</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>18446744073609553964</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>37.3</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12828</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2021-07-15T17:08:21</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17:08:21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Сергей Любшин</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>18446744073609553964</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>37.4</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12828</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2021-07-15T17:08:20</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17:08:20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Сергей Любшин</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>18446744073609553964</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12828</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2021-07-15T17:08:19</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17:08:19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Сергей Любшин</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>18446744073609553964</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>5765</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021-07-15T17:01:57</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17:01:57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Руслан Батт</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6-term_svyaz</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>18446744073609552251</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>41.3</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>5765</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2021-07-15T17:01:56</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2021-07-15</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17:01:56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Руслан Батт</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6-term_svyaz</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>18446744073609552251</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>41.1</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>932292</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2021-07-13T20:00:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2021-07-13</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Темирлан Бакытжанов</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8-in-term_pzhdt</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>18446744073609554107</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>37.4</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>932292</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2021-07-13T19:59:59</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2021-07-13</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19:59:59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Темирлан Бакытжанов</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8-in-term_pzhdt</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>18446744073609554107</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>37.5</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>932292</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021-07-13T19:59:58</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2021-07-13</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19:59:58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Темирлан Бакытжанов</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8-in-term_pzhdt</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>18446744073609554107</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>37.5</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>932292</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2021-07-13T19:59:57</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2021-07-13</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19:59:57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Темирлан Бакытжанов</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8-in-term_pzhdt</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>18446744073609554107</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>37.6</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>931599</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>2021-07-12T16:57:25</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>2021-07-12</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>16:57:25</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Дамир Гончарук</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9-term_severnaya</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9-term_severnaya</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>18446744073609553023</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>37.0</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
